--- a/biology/Botanique/Brouette/Brouette.xlsx
+++ b/biology/Botanique/Brouette/Brouette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une brouette est un contenant mobile, porté sur une ou plusieurs roues, muni de deux brancards pour le transport humain de petites charges, généralement sur de courtes distances.
 C’est un outil ergonomique pour le transport de matériaux ou d’outils sur des terrains qui peuvent être accidentés mais nécessairement peu inclinés. Indispensable sur les chantiers, dans les fermes ou dans les jardins, elle facilite le déplacement de charges qui peuvent être lourdes ou encombrantes. Le principe du levier associé à la position du centre de gravité vers l’aplomb du point d’appui (la roue), lui confère une grande efficacité.
@@ -514,76 +526,198 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">La question des origines
-En histoire, et surtout en histoire des techniques, il est souvent dangereux de supposer forcément ancien ce qui paraît aller naturellement de soi : l’histoire de la brouette semble s’inscrire dans ce principe[1].
-En français, le terme apparaît au XIVe siècle. Étymologiquement il serait un diminutif de beroue, lui-même venant du bas latin birota, véhicule à deux roues, c'est à dire une charrette[1]. Dans les langues germaniques, dont l'anglais, il apparait comme un dérivé de la racine « porter »[2],[3] accolée à « roue ».
+          <t>La question des origines</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En histoire, et surtout en histoire des techniques, il est souvent dangereux de supposer forcément ancien ce qui paraît aller naturellement de soi : l’histoire de la brouette semble s’inscrire dans ce principe.
+En français, le terme apparaît au XIVe siècle. Étymologiquement il serait un diminutif de beroue, lui-même venant du bas latin birota, véhicule à deux roues, c'est à dire une charrette. Dans les langues germaniques, dont l'anglais, il apparait comme un dérivé de la racine « porter », accolée à « roue ».
 			brique murale funéraire de la période Han, une brouette est représentée
 			idem
 			idem
 En chine, l’engin serait une invention apparue vers le Ier siècle, attestée dans des représentations funéraires dès 118 AD. 
-Elle y est appelée « véhicule à une roue poussé à l’aide des mains » (獨輪手推車 / 独轮手推车, dú lún shǒu tuī chē). Selon Robert Temple[4], la brouette aurait même été inventée un siècle av. J.-C., dans le Sud-Est de la Chine, par un personnage semi-légendaire nommé Ko Yu. Il est supposé avoir fabriqué une sorte de mouton en bois et l’avoir monté à travers la montagne. Les brouettes ayant longtemps été décrites comme des « bœufs de bois » ou des « chevaux glissant », il est probable que l’invention de ce personnage légendaire soit la brouette. 
-Elle est poussée par un homme comme son nom l'indique, mais l'iconographie montre parfois un second homme, un âne ou un cheval auquel est elle accroché à l'avant par une corde et qui aide à la tirer[5].
-On y voit également une version agrandie dotée d'une seule roue centrale. Ainsi comparé à la brouette classique, où le porteur en porte une fracton notable de la charge[6], avec son système de roue centrale cette brouette porte la quasi-totalité de la charge lorsqu'elle est équilibrée[7]. Le général Zhuge Liang (181-234), de la période des Trois Royaumes (IIIe siècle) aurait ravitaillé ses armées et transporté ses blessés avec des brouettes, tâche qui paraît pourtant mal convenir à l’engin plutôt performant pour le transport de charges sur de courtes distances. Ils ont également inventé une brouette dotée d’un petit mât et comportant une voile (加帆車, jiā fān chē, « véhicule agrémenté d'une voile »)[7] (probablement au Ve siècle[réf. nécessaire]), permettant de diminuer l’effort humain lorsque le vent est favorable. Ces brouettes à voile sont encore utilisées pour les longs voyages, dans les plaines du Nord et de l'Ouest de la Chine au XIXe siècle[8].
+Elle y est appelée « véhicule à une roue poussé à l’aide des mains » (獨輪手推車 / 独轮手推车, dú lún shǒu tuī chē). Selon Robert Temple, la brouette aurait même été inventée un siècle av. J.-C., dans le Sud-Est de la Chine, par un personnage semi-légendaire nommé Ko Yu. Il est supposé avoir fabriqué une sorte de mouton en bois et l’avoir monté à travers la montagne. Les brouettes ayant longtemps été décrites comme des « bœufs de bois » ou des « chevaux glissant », il est probable que l’invention de ce personnage légendaire soit la brouette. 
+Elle est poussée par un homme comme son nom l'indique, mais l'iconographie montre parfois un second homme, un âne ou un cheval auquel est elle accroché à l'avant par une corde et qui aide à la tirer.
+On y voit également une version agrandie dotée d'une seule roue centrale. Ainsi comparé à la brouette classique, où le porteur en porte une fracton notable de la charge, avec son système de roue centrale cette brouette porte la quasi-totalité de la charge lorsqu'elle est équilibrée. Le général Zhuge Liang (181-234), de la période des Trois Royaumes (IIIe siècle) aurait ravitaillé ses armées et transporté ses blessés avec des brouettes, tâche qui paraît pourtant mal convenir à l’engin plutôt performant pour le transport de charges sur de courtes distances. Ils ont également inventé une brouette dotée d’un petit mât et comportant une voile (加帆車, jiā fān chē, « véhicule agrémenté d'une voile ») (probablement au Ve siècle[réf. nécessaire]), permettant de diminuer l’effort humain lorsque le vent est favorable. Ces brouettes à voile sont encore utilisées pour les longs voyages, dans les plaines du Nord et de l'Ouest de la Chine au XIXe siècle.
 			Brouette aidée d'un âne attaché par des cordes et d'un second homme, détail de La fête de Qingming au bord de la rivière (1085, dynastie Song)
 			Brouette utilisée au Tonkin pour le transport des porcs, similaire aux brouettes chinoises, la roue centrale permet le port de charges plus lourdes lorsqu'elle est bien équilibrée autour de son axe.
 			Brouette à voile utilisé pour les longs voyages dans les plaines, photographie datant d'environ 1900 (dynastie Qing)
-Il n'est jamais question de brouette dans les textes latins ou grecs, que ce soit chez les géomètres, les agronomes, les mécaniciens ou les architectes[9]. Cependant, une étude de 1994 a mis en évidence la mention dans deux inventaires grecs datés de -408/-407 et de -407/-406, au milieu d'une liste de charrettes (bicycles) et chariots (quadricycles), d'un monocycle , qui pourrait être une brouette [10]. Cela ferait que la brouette aurait été inventée par les Grecs plus de trois siècles avant son apparition en Chine. Quoi qu'il en soit dans cette hypothèse l'invention ne s'est pas répandue et n'a laissé aucune autre trace.
+Il n'est jamais question de brouette dans les textes latins ou grecs, que ce soit chez les géomètres, les agronomes, les mécaniciens ou les architectes. Cependant, une étude de 1994 a mis en évidence la mention dans deux inventaires grecs datés de -408/-407 et de -407/-406, au milieu d'une liste de charrettes (bicycles) et chariots (quadricycles), d'un monocycle , qui pourrait être une brouette . Cela ferait que la brouette aurait été inventée par les Grecs plus de trois siècles avant son apparition en Chine. Quoi qu'il en soit dans cette hypothèse l'invention ne s'est pas répandue et n'a laissé aucune autre trace.
 La première représentation européenne date du milieu du XIIIe siècle et nous ne disposons ni de représentations figurées ni de textes précis antérieurs à cette date. La relative abondance des représentations dans la seconde moitié du XIIIe siècle laisse supposer une apparition dans la première moitié de ce siècle.
-Dans aucune scène agricole, domaine où les miniatures sont nombreuses, on ne voit de brouette. Les représentations de travaux miniers, où la brouette tiendra une place importante, sont inexistantes avant le XVIe siècle[11]. Il existe des légendes qui attribuent l’objet à un certain Dupin voire à Pascal, tous deux vers 1650. En fait, on nommait ironiquement[12] « brouette » ou « vinaigrette » une chaise à porteur à deux roues apparue à cette époque[13] et l’invention en a été effectivement attribuée à Pascal, même si aucune source sérieuse ne le confirme.
-Une diffusion assez lente
-Malgré l’intérêt évident de l’engin, toujours utilisé dans les campagnes et sur les chantiers, la diffusion de la brouette semble avoir été assez lente et pour des usages limités, comme le suggèrent des illustrations plus tardives où coexistent encore le brancard et la brouette. Il se pourrait que la brouette (véhicule à une roue) n’ait pas été très répandue en Europe avant le XVe siècle, date à partir de laquelle on constate nombre de mentions[9]. Aucune représentation de l’engin n’est visible dans les carnets des « ingénieurs » de la Renaissance.
-En 1798, à l’époque de l’expédition de Bonaparte au Caire, Abd al-Rahman al-Jabarti consignera dans son journal les preuves de sa méconnaissance de l’outil[14] :
+Dans aucune scène agricole, domaine où les miniatures sont nombreuses, on ne voit de brouette. Les représentations de travaux miniers, où la brouette tiendra une place importante, sont inexistantes avant le XVIe siècle. Il existe des légendes qui attribuent l’objet à un certain Dupin voire à Pascal, tous deux vers 1650. En fait, on nommait ironiquement « brouette » ou « vinaigrette » une chaise à porteur à deux roues apparue à cette époque et l’invention en a été effectivement attribuée à Pascal, même si aucune source sérieuse ne le confirme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Brouette</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brouette</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Éléments d’histoire de la brouette</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Une diffusion assez lente</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malgré l’intérêt évident de l’engin, toujours utilisé dans les campagnes et sur les chantiers, la diffusion de la brouette semble avoir été assez lente et pour des usages limités, comme le suggèrent des illustrations plus tardives où coexistent encore le brancard et la brouette. Il se pourrait que la brouette (véhicule à une roue) n’ait pas été très répandue en Europe avant le XVe siècle, date à partir de laquelle on constate nombre de mentions. Aucune représentation de l’engin n’est visible dans les carnets des « ingénieurs » de la Renaissance.
+En 1798, à l’époque de l’expédition de Bonaparte au Caire, Abd al-Rahman al-Jabarti consignera dans son journal les preuves de sa méconnaissance de l’outil :
 « Ils [les Français] recouraient à des instruments faciles à manier et épargnant la peine, ce qui permettait une exécution rapide des travaux. Ainsi, au lieu de paniers ou de récipients, ils utilisaient de petites charrettes qui avaient deux bras allongés par-derrière ; on les remplissait de terre, d’argile ou de pierres […] ensuite on prenait en main les deux bras, on poussait devant soi et la charrette roulait sur sa roue avec la moindre peine jusqu’au chantier ; on les vidait enfin, en la penchant d’une main, sans aucune fatigue. »
 En 1821, des agronomes français regrettaient qu’elle ne soit pas connue dans plusieurs régions françaises.
 D'autres indices quant aux modalités de cette lente diffusion sont accessibles grâce au chantier du canal de Suez (1859-1869), à l'occasion duquel les agents de la Compagnie découvrent que la brouette, d'un usage banal en Europe pour les travaux agricoles ou du génie civil, est inconnue en Égypte. Plus surprenant, diverses tentatives pour faire utiliser la brouette par les fellahs égyptiens se soldent par des échecs. Ainsi, l'objet technique ne porte pas en lui l'usage qui en est fait, ni les gestes qui lui sont associés. Il ne présage pas non plus des obstacles culturels auxquels peuvent se heurter des tentatives de transfert technique, ni des choix d'engagement dans des trajectoires technologiques données.
-Plus tard, les économistes s'empareront du débat pour souligner cette lenteur dans la diffusion de l'engin qui semble paradoxale au regard de sa simplicité technique. Angus Maddison[15], s'interrogeant sur les origines de disparités de développement, prend l'exemple de la brouette pour souligner l'importance du processus d'imitation. Selon lui, la brouette serait passée de la Chine vers l'Europe, mais des siècles plus tard, malgré les contacts privilégiés entre l'Inde et l'Occident, les charges restaient portées sur la tête par les travailleurs indiens, comme elles le sont d'ailleurs toujours en Afrique.
-Les archéologues de l'Institut français d'archéologie orientale du Caire se heurtent aujourd'hui au même type de difficultés que leurs prédécesseurs lorsqu'ils prescrivent l'utilisation de la brouette sur leur chantier de fouille[14].
-Si le principe mis en œuvre est resté le même, l'objet a connu quelques améliorations depuis : brouette motorisée, brouette pliante ou brouette à roue équipée d'un pneumatique. James Dyson a proposé en 1974 la Ballbarrow, une brouette à roue sphérique[16].
+Plus tard, les économistes s'empareront du débat pour souligner cette lenteur dans la diffusion de l'engin qui semble paradoxale au regard de sa simplicité technique. Angus Maddison, s'interrogeant sur les origines de disparités de développement, prend l'exemple de la brouette pour souligner l'importance du processus d'imitation. Selon lui, la brouette serait passée de la Chine vers l'Europe, mais des siècles plus tard, malgré les contacts privilégiés entre l'Inde et l'Occident, les charges restaient portées sur la tête par les travailleurs indiens, comme elles le sont d'ailleurs toujours en Afrique.
+Les archéologues de l'Institut français d'archéologie orientale du Caire se heurtent aujourd'hui au même type de difficultés que leurs prédécesseurs lorsqu'ils prescrivent l'utilisation de la brouette sur leur chantier de fouille.
+Si le principe mis en œuvre est resté le même, l'objet a connu quelques améliorations depuis : brouette motorisée, brouette pliante ou brouette à roue équipée d'un pneumatique. James Dyson a proposé en 1974 la Ballbarrow, une brouette à roue sphérique.
 Une variation moderne de la brouette est utilisée en février 1971 par les astronautes d'Apollo 14, qui font usage d'un Mobile Equipment Transporter, ou « brouette lunaire », pour transporter les échantillons de roches lunaires.
-La brouette dans les textes
-Les textes, en Europe, sont à la fois tardifs et ambigus dans la mesure où nous ne sommes jamais assurés qu’il s’agisse bien d’un véhicule à « une roue. » La plus ancienne mention est extraite de la chronique rimée de Philippe Mouskes, chanoine et évêque, datée des environs de 1270 mais dont le contexte laisserait plutôt penser à un véhicule à deux roues tiré par un attelage :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brouette</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brouette</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Éléments d’histoire de la brouette</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La brouette dans les textes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les textes, en Europe, sont à la fois tardifs et ambigus dans la mesure où nous ne sommes jamais assurés qu’il s’agisse bien d’un véhicule à « une roue. » La plus ancienne mention est extraite de la chronique rimée de Philippe Mouskes, chanoine et évêque, datée des environs de 1270 mais dont le contexte laisserait plutôt penser à un véhicule à deux roues tiré par un attelage :
 Et li bourgois de totes pars,
 Karaites ont quises et cars,
 Bourouettes, ribaus, soumiers,
 Roucis et jumens et coliers.
-Victor Gay[17], dans son Glossaire archéologique du Moyen Âge et de la Renaissance, cite des textes de 1342, de 1360, de 1380 et de 1382. À partir du XVe siècle, on note une véritable explosion de textes, de mentions et d’images.
+Victor Gay, dans son Glossaire archéologique du Moyen Âge et de la Renaissance, cite des textes de 1342, de 1360, de 1380 et de 1382. À partir du XVe siècle, on note une véritable explosion de textes, de mentions et d’images.
 D’après les comptes de la ville d’Amiens de 1401 « Jehan de Remy, Caron, refit par deux fois la brouette qui sert aux paveurs, à laquelle il fist le cavech, le fons, les barres et une grande def en bois » (c’est-à-dire la caisse, le fond, les bras et le grand essieu). Faut-il en conclure que la voirie d’Amiens ne possédait qu’une brouette et s’en étonner ?
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Brouette</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Brouette</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brouette</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brouette</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Étude technologique de la brouette</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Analyse fonctionnelle
-Fonction principale, définition
-La brouette répond au besoin « augmenter la capacité de transport d’objets divers par un homme seul, sur voie à aménagement rudimentaire. » On peut donc la définir comme objet technique « agent de transport » permettant d’augmenter, etc.
-Remarque : comme pour pratiquement tout objet technique, ce n’est pas la seule réponse à ce besoin, de même que l’objet technique ne porte pas en lui sa fonction principale, et peut donc être utilisé à bien d’autres choses[18].
-Constitution de la solution « brouette »
-La brouette se compose de cinq sous-ensembles :
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Analyse fonctionnelle</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Fonction principale, définition</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La brouette répond au besoin « augmenter la capacité de transport d’objets divers par un homme seul, sur voie à aménagement rudimentaire. » On peut donc la définir comme objet technique « agent de transport » permettant d’augmenter, etc.
+Remarque : comme pour pratiquement tout objet technique, ce n’est pas la seule réponse à ce besoin, de même que l’objet technique ne porte pas en lui sa fonction principale, et peut donc être utilisé à bien d’autres choses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Brouette</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brouette</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Étude technologique de la brouette</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Analyse fonctionnelle</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Constitution de la solution « brouette »</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La brouette se compose de cinq sous-ensembles :
 le châssis : constitué de deux brancards solidarisés, fonction support de l’ensemble ;
 les poignées : fonction préhension, commande et transmission de l’énergie : c’est l’interface utilisateur ;
 le porte-charge : contenant du transportable, c’est la fonction outil (on appelle fonction outil la fonction du sous-ensemble qui en dernière analyse assure la fonction de l’ensemble), réalisée par un simple plateau plus ou moins équipé de parois, une benne (nommée caisse, cuve, coffre, etc.) ou un équipement spécifique ;
@@ -592,8 +726,47 @@
 			Ça s’appelle « brouette. » Mais est-ce encore une brouette ?
 			Modèle de brouette dont la caisse est suspendue aux brancards.
 			Diable et sac à roulettes.
-Variantes – classification
-Les différentes variantes d’un objet technique peuvent se classer selon les solutions apportées pour réaliser les fonctions nécessaires. Cela dit, pour des objets techniques très populaires, le langage courant donnera un même nom à des objets assez éloignés, ou donnera un nom spécifique à d’autres, qui à l’évidence ne sont que de simples variantes. La classification ci-dessous va donc intégrer des objets comme le diable et laisser de côté des « brouettes à neige »[19] ou des « brouettes à chenille »[20].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Brouette</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brouette</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Étude technologique de la brouette</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Analyse fonctionnelle</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Variantes – classification</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les différentes variantes d’un objet technique peuvent se classer selon les solutions apportées pour réaliser les fonctions nécessaires. Cela dit, pour des objets techniques très populaires, le langage courant donnera un même nom à des objets assez éloignés, ou donnera un nom spécifique à d’autres, qui à l’évidence ne sont que de simples variantes. La classification ci-dessous va donc intégrer des objets comme le diable et laisser de côté des « brouettes à neige » ou des « brouettes à chenille ».
 Variantes selon le nombre de roues
 Si la brouette selon son étymologie a deux roues, c’est surtout lorsqu’elle n’en a qu’une qu’elle se caractérise comme « brouette. » Toutefois, quand elle a deux roues, celles-ci sont coaxiales.
 Critiques : La brouette à deux roues permet de plus grandes contenances, plus stable elle peut se conduire d’une seule main mais elle est très difficile, voire éprouvante, à mener sur les terrains accidentés tandis que la brouette à une roue se joue des irrégularités du terrain. Par ailleurs la place nécessaire pour manœuvrer la brouette à deux roues dépend de la largeur de l’essieu.
@@ -613,14 +786,127 @@
 porte-charge spécialisé : citerne, tonneau, bétonnière, etc. Ce sont généralement des engins à deux roues.
 Variantes selon la position des pieds
 Entre les poignées et la roue (position ordinaire)
-En avant de la roue (famille des « diables » : valise à roues[21], sac à provisions à roulettes, etc.)
-Analyse mécanique
-La brouette présente deux intérêts majeurs pour le transport des marchandises : d'une part la roue réduit la résistance à l’avancement, d'autre part la roue porte une grande partie du poids et soulage l'utilisateur (ou lui permet de tranporter des charges plus lourdes). Pour la mécanique, la brouette est essentiellement un levier de la seconde classe dont le point d'appui est une roue, ce qui permet de calculer la proportion supportée respectivement par la roue et l'utilisateur, que le sol soit plan ou incliné (en montée ou en descente). Quand on regarde plus en détail en tenant compte également, de l'avancement, du renversement et du basculement, il faut tenir compte de la surface de sustentation, qui est dans ce cas un triangle formé par la roue et les pieds du porteur (donc très étroit), la brouette apparaissant alors plutôt comme une paire de leviers (un pour chaque main, ou plutôt chaque pied, de l'utilisateur).
-La roue
-La taille de la roue est d’une grande influence sur le comportement d’un véhicule. Elle doit être de diamètre très grand devant les aspérités du terrain pratiqué, au risque, dans le cas contraire, de provoquer des trésautements nuisibles, désagréables et qui réduisent le rendement, voire de se caler. L'utilisation d'un pneu fait que la roue se comporte, sous cet aspect, comme si elle était d'un diamètre augmenté, mais au prix d'une légère perte de rendement.
+En avant de la roue (famille des « diables » : valise à roues, sac à provisions à roulettes, etc.)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Brouette</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brouette</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Étude technologique de la brouette</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Analyse mécanique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La brouette présente deux intérêts majeurs pour le transport des marchandises : d'une part la roue réduit la résistance à l’avancement, d'autre part la roue porte une grande partie du poids et soulage l'utilisateur (ou lui permet de tranporter des charges plus lourdes). Pour la mécanique, la brouette est essentiellement un levier de la seconde classe dont le point d'appui est une roue, ce qui permet de calculer la proportion supportée respectivement par la roue et l'utilisateur, que le sol soit plan ou incliné (en montée ou en descente). Quand on regarde plus en détail en tenant compte également, de l'avancement, du renversement et du basculement, il faut tenir compte de la surface de sustentation, qui est dans ce cas un triangle formé par la roue et les pieds du porteur (donc très étroit), la brouette apparaissant alors plutôt comme une paire de leviers (un pour chaque main, ou plutôt chaque pied, de l'utilisateur).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Brouette</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brouette</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Étude technologique de la brouette</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Analyse mécanique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>La roue</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille de la roue est d’une grande influence sur le comportement d’un véhicule. Elle doit être de diamètre très grand devant les aspérités du terrain pratiqué, au risque, dans le cas contraire, de provoquer des trésautements nuisibles, désagréables et qui réduisent le rendement, voire de se caler. L'utilisation d'un pneu fait que la roue se comporte, sous cet aspect, comme si elle était d'un diamètre augmenté, mais au prix d'une légère perte de rendement.
 Si la position en porte-à-faux des roues de charrette autorise des grandes tailles, l’étude ci-dessous montre que dans le cas de la brouette il existe une limite à ne pas dépasser. En effet, agrandir la roue éloigne le point d'appui du levier et augmente la charge pour l'utilisateur.
-Influence de la position longitudinale de la caisse
-L'utilisateur doit pousser mais aussi aussi supporter une partie de la charge. La proportion qu'il porte est égale au ratio de deux distances horizontales, celle de la charge au point de contact de la roue au sol, et celle de ce même point aux pieds du porteur. Il est donc interessant, sous cet aspect, de rapprocher au maximum la charge vers la roue (cependant, cela affecte le risque de faire sortie la charge du triangle de sustentation et de provoquer un basculement latéral, Cf. section suivante).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Brouette</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brouette</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Étude technologique de la brouette</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Analyse mécanique</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Influence de la position longitudinale de la caisse</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'utilisateur doit pousser mais aussi aussi supporter une partie de la charge. La proportion qu'il porte est égale au ratio de deux distances horizontales, celle de la charge au point de contact de la roue au sol, et celle de ce même point aux pieds du porteur. Il est donc interessant, sous cet aspect, de rapprocher au maximum la charge vers la roue (cependant, cela affecte le risque de faire sortie la charge du triangle de sustentation et de provoquer un basculement latéral, Cf. section suivante).
 Cela peut se montrer par une étude mécanique statique.
 La considération de l’équilibre du châssis d’une brouette sur un sol sans déclivité amène à considérer trois actions mécaniques extérieures modélisables par des forces.
 le poids de l’ensemble constitué de la brouette et de son chargement, représenté par une force 
@@ -690,8 +976,47 @@
 Dans une descente (roue en aval) tout est inversé. Le point de concours des droites de forces est au-dessous du sol. L’étude montre, là aussi que, l’intensité de l’action du pousseur est à peu près la même. À cela s’ajoute le problème du contenu, surtout s’il est liquide. Dans une montée on peut corriger l’assiette en soulevant la brouette, dans une descente cela n’est plus possible dès que les pieds touchent le sol.
 			Équilibre de la brouette dans une pente.
 			Cas de la roue en aval.
-Aptitude au basculement
-Une vue frontale de la brouette chargée permet de prendre en considération le risque de basculement. Du fait de la roue centrale, l’équilibre s’apparente à celui du levier inversé, et le pousseur devient en quelque sorte aussi jongleur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Brouette</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brouette</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Étude technologique de la brouette</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Analyse mécanique</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Aptitude au basculement</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Une vue frontale de la brouette chargée permet de prendre en considération le risque de basculement. Du fait de la roue centrale, l’équilibre s’apparente à celui du levier inversé, et le pousseur devient en quelque sorte aussi jongleur.
 Lorsque la brouette est bien droite avec un chargement équilibré, le pousseur soulève les poignées en exerçant deux forces identiques (et égales à la moitié de celle déterminée dans l’étude précédente). Le problème survient lorsque le chargement n’est plus équilibré ou que la brouette n’est plus parfaitement verticale. Alors l’action du poids de l’ensemble n’est plus dans le même plan vertical que le contact du sol sur la roue. Ce décalage induit un couple de renversement auquel le pousseur doit immédiatement s’opposer, en exerçant sur les poignées des actions désormais différentes.
 Une première étude qualitative montre qu’il y a alors besoin d'un frottement au niveau du contact sol/roue, ayant l'effet d'un rail guidant la roue, qui peut alors s’incliner. Dans le cas contraire, si le coefficient de frottement est trop faible, sur de la glace par exemple, la roue dérape et la brouette se retourne immédiatement et inévitablement. Ce frottement nécessaire produit une résistance au roulement négligeable.
 À présent l’étude quantitative des efforts entrant dans le maintien de la brouette en phase de renversement peut aboutir, dans une première approximation (en supposant que l’action de redressement de la brouette n'est opérée que sur une seule poignée, cas assez réaliste et suffisant pour l'étude). 
@@ -777,92 +1102,241 @@
         ⁡
         α
     {\displaystyle \sin \alpha \,}
-) montre que si pour une faible inclinaison (quelques degrés) le rétablissement ne pose pas de problème, la situation devient vite désespérée : dans le cas d’un chargement fluide (même visqueux, comme du béton ou du bitume), la forme évasée de la caisse amplifie le déséquilibre en déportant à la fois vers le haut et du mauvais côté le centre de masse.
-Conclusions constructives
-La taille de la roue doit être suffisamment grande pour s’adapter aux conditions de terrain mais rester limitée de façon à avoir une hauteur acceptable pour le seuil de chargement. Le châssis doit positionner la caisse au plus près de la roue, et le plus bas possible dans un objectif de stabilité au roulage. Par contre le déversement final du contenu sera facilité par une position plus haute de la caisse… au risque d’un accident en cours de transport. Les poignées doivent être remontées sans pour autant faire lever les coudes du pousseur au niveau des épaules, et suffisamment écartées pour lui donner le plus d’efficacité dans le maintien de l’équilibre.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Brouette</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Brouette</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+) montre que si pour une faible inclinaison (quelques degrés) le rétablissement ne pose pas de problème, la situation devient vite désespérée : dans le cas d’un chargement fluide (même visqueux, comme du béton ou du bitume), la forme évasée de la caisse amplifie le déséquilibre en déportant à la fois vers le haut et du mauvais côté le centre de masse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Brouette</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brouette</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Étude technologique de la brouette</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Analyse mécanique</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Conclusions constructives</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille de la roue doit être suffisamment grande pour s’adapter aux conditions de terrain mais rester limitée de façon à avoir une hauteur acceptable pour le seuil de chargement. Le châssis doit positionner la caisse au plus près de la roue, et le plus bas possible dans un objectif de stabilité au roulage. Par contre le déversement final du contenu sera facilité par une position plus haute de la caisse… au risque d’un accident en cours de transport. Les poignées doivent être remontées sans pour autant faire lever les coudes du pousseur au niveau des épaules, et suffisamment écartées pour lui donner le plus d’efficacité dans le maintien de l’équilibre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Brouette</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brouette</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Perspectives</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">La brouette constitue un objet d’étude singulier et un bon thème de réflexion critique pour l’historien des techniques. L’objet pourrait avoir joué un rôle plus important qu’il n’y paraît en facilitant grandement les travaux de voirie et des champs. Dès le XVIe siècle, les manufacturiers des villes s’intéressent à la main-d’œuvre paysanne régulièrement oisive du fait de la saisonnalité des travaux agricoles. Dans ce contexte le travail à domicile va se développer notamment dans le cadre de la production textile. Ainsi la brouette sera mise à contribution pour la circulation des marchandises par les peigneurs, les fileurs et autres tisserands comme à Tourcoing où les habitants prendront le surnom de Broutteux.
-D’une façon générale, l’innovation peut-être analysée comme un changement de fonction de production[22]. De Karl Marx à John Hicks, le débat a longtemps consisté à savoir si le biais systématique dans ce changement consistait en une économie de capital ou une économie de main-d’œuvre. Un argument en faveur de cette dernière réside dans la propension de l’homme de développer des moyens techniques pour s’ôter de la peine : ce principe correspond au « détour de production »[23]. L’analyse philologique de la brouette proposée ci-contre reste purement spéculative mais illustre parfaitement ce concept. Pourtant, elle met également en évidence la pertinence des progrès d’organisation et d’économie du capital…
-Le développement des nanotechnologies montre que le modèle continue d’inspirer les techniciens contemporains avec la nano brouette[24], le plus petit mécanisme du monde à ce jour.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Brouette</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Brouette</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+D’une façon générale, l’innovation peut-être analysée comme un changement de fonction de production. De Karl Marx à John Hicks, le débat a longtemps consisté à savoir si le biais systématique dans ce changement consistait en une économie de capital ou une économie de main-d’œuvre. Un argument en faveur de cette dernière réside dans la propension de l’homme de développer des moyens techniques pour s’ôter de la peine : ce principe correspond au « détour de production ». L’analyse philologique de la brouette proposée ci-contre reste purement spéculative mais illustre parfaitement ce concept. Pourtant, elle met également en évidence la pertinence des progrès d’organisation et d’économie du capital…
+Le développement des nanotechnologies montre que le modèle continue d’inspirer les techniciens contemporains avec la nano brouette, le plus petit mécanisme du monde à ce jour.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Brouette</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brouette</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Autour de la brouette</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la littérature et dans les arts
-La Brouette ou les grandes inventions est un poème de Jacques Prévert, dans Paroles :
-Le paon fait la roue[25]
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Dans la littérature et dans les arts</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Brouette ou les grandes inventions est un poème de Jacques Prévert, dans Paroles :
+Le paon fait la roue
 Le hasard fait le reste
 Dieu s’assoit dedans
 et l’homme le pousse.
-La Brouette[26] est un poème d’Edmond Rostand.
+La Brouette est un poème d’Edmond Rostand.
 La Brouette du vinaigrier, un drame en trois actes de Louis-Sébastien Mercier.
 La Brouette est un tableau de Salvador Dalí (1951), lequel fait apparaître l’engin dans certains de ses tableaux, comme dans sa Tête raphaélesque éclatée ou encore La Gare de Perpignan où la brouette de gare rejoint celle de l’Angélus de Millet, ainsi que celle plus ambiguë que forme le couple du fond à droite (les prieurs, après l’Angélus ?). En 1955, Dali avait annoncé le tournage d’un film intitulé la Brouette de chair, dans lequel l’héroïne tombait amoureuse d’une brouette…
 Madame Brouette » est un film de Moussa Sène Absa.
-Polysémie du mot brouette
-En rapport avec sa forme, la « brouette » est le nom d’une position sexuelle entre deux partenaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Brouette</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brouette</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Autour de la brouette</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Polysémie du mot brouette</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>En rapport avec sa forme, la « brouette » est le nom d’une position sexuelle entre deux partenaires.
 Être « en cuir de brouette » signifie être dur, raide, en bois. Expression trouvée chez George Sand (Le Meunier d’Angibault), Eugène Sue (Les Mystères de Paris), Henri Pourrat (Les Vaillances, farces et aventures de Gaspard des montagnes)…
-« Se faire barouetter » (déformation de brouette dans le langage populaire) est une expression franco-canadienne signifiant, au propre ou au figuré : se faire transporter de-ci de-là, sans ménagement[27]. Brouette est souvent prononcé et dit barouette, notamment au Québec et dans le patois marnais[28]. Au Québec, dans le langage parlé, le mot brouette est couramment remplacé par barouette.
-Jeux d’enfants (petits ou grands…)
-Le jeu de la brouette consiste pour deux personnes à simuler la poussée d’une brouette, l’un jouant le rôle de l’outil, l’autre le poussant. Ainsi, un des deux partenaires marche le corps à peu près à l’horizontale, en avançant sur les mains, les chevilles maintenues par le second. Les équipes de deux font la course.
+« Se faire barouetter » (déformation de brouette dans le langage populaire) est une expression franco-canadienne signifiant, au propre ou au figuré : se faire transporter de-ci de-là, sans ménagement. Brouette est souvent prononcé et dit barouette, notamment au Québec et dans le patois marnais. Au Québec, dans le langage parlé, le mot brouette est couramment remplacé par barouette.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Brouette</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brouette</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Autour de la brouette</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Jeux d’enfants (petits ou grands…)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jeu de la brouette consiste pour deux personnes à simuler la poussée d’une brouette, l’un jouant le rôle de l’outil, l’autre le poussant. Ainsi, un des deux partenaires marche le corps à peu près à l’horizontale, en avançant sur les mains, les chevilles maintenues par le second. Les équipes de deux font la course.
 Les courses de brouettes se pratiquent aussi, avec de véritables brouettes, portant un chargement quelquefois humain, le plus souvent sous forme de parcours plus ou moins « acrobato-humoristique ». Certaines collectivités locales organisent traditionnellement de telles courses, à l'instar par exemple de Saligny (en Vendée), qui n'hésite pas à se qualifier de « Capitale de la Brouette ».
 Les brouettes sont par ailleurs construites à l’échelle des plus jeunes et constituent un jouet apprécié.
-Décoration
-La brouette est souvent utilisée comme simple décoration dans les jardins, le plus souvent en porte-fleurs. Il s’agit au départ de brouettes traditionnelles, plus ou moins hors d’usage et « recyclées » à cet usage. Mais en raison du succès, une production spécifique de brouettes décoratives et fantaisistes[29] a vu le jour, en bois plus ou moins ouvré[30], en vannerie[31], en fer forgé, etc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Brouette</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brouette</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Autour de la brouette</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Décoration</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La brouette est souvent utilisée comme simple décoration dans les jardins, le plus souvent en porte-fleurs. Il s’agit au départ de brouettes traditionnelles, plus ou moins hors d’usage et « recyclées » à cet usage. Mais en raison du succès, une production spécifique de brouettes décoratives et fantaisistes a vu le jour, en bois plus ou moins ouvré, en vannerie, en fer forgé, etc.
 </t>
         </is>
       </c>
